--- a/laravel_user_stories.xlsx
+++ b/laravel_user_stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bap-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BEDAC7-E201-47AB-979F-277412951B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AB108F-3F70-45A5-A967-015BAC6ECD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
@@ -1548,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8C07C-95E6-5F45-AA16-00A7B9F9E844}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>15</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>16</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>30</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>80</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>82</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>85</v>

--- a/laravel_user_stories.xlsx
+++ b/laravel_user_stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bap-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AB108F-3F70-45A5-A967-015BAC6ECD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039308C0-73B5-44E9-A35D-1404301E09C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis" sheetId="1" r:id="rId1"/>
@@ -1548,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8C07C-95E6-5F45-AA16-00A7B9F9E844}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>86</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>100</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="34" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>132</v>
@@ -3098,6 +3098,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8D01017B67FFC40B6EAF835C0079E48" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c7194cc31030e2712d76c2006e0d75af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584c6f05-645a-45c2-af5b-a2298cf6e1b5" xmlns:ns3="5c2aeaab-3434-48d9-b2ba-99c708216bcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="420f24c0cdcfc5bd7329cba19e0bdf1c" ns2:_="" ns3:_="">
     <xsd:import namespace="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
@@ -3300,15 +3309,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3316,6 +3316,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62A3BA8-675C-43E7-9E30-618B42A3DB6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3330,14 +3338,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
